--- a/Java Full Stack Curriculum-Customised_23 Days.xlsx
+++ b/Java Full Stack Curriculum-Customised_23 Days.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhin\Desktop\donws\tcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202BFDBF-FB40-447D-AA1C-22107B86DD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773D4012-607C-4588-926F-1F4050B0921D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,26 @@
     <sheet name="Java FullStack" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="184">
   <si>
     <t>Focus Area</t>
   </si>
@@ -1188,6 +1197,153 @@
   </si>
   <si>
     <t>it is better to provide the DC.</t>
+  </si>
+  <si>
+    <t>01-07-2021 &amp; 02-07-2021</t>
+  </si>
+  <si>
+    <t>5th July &amp; 6th July</t>
+  </si>
+  <si>
+    <t>7th &amp; 8th July</t>
+  </si>
+  <si>
+    <t>9th July</t>
+  </si>
+  <si>
+    <t>12th July</t>
+  </si>
+  <si>
+    <t>13th July</t>
+  </si>
+  <si>
+    <t>14th july</t>
+  </si>
+  <si>
+    <t>15th July</t>
+  </si>
+  <si>
+    <t>16th july</t>
+  </si>
+  <si>
+    <t>19th July</t>
+  </si>
+  <si>
+    <t>20th july</t>
+  </si>
+  <si>
+    <t>21st July</t>
+  </si>
+  <si>
+    <t>22nd July &amp; 23rd July</t>
+  </si>
+  <si>
+    <t>26th July</t>
+  </si>
+  <si>
+    <t>27th July</t>
+  </si>
+  <si>
+    <t>27th July &amp; 28th July</t>
+  </si>
+  <si>
+    <t>28th July (post lunch) &amp; 29th july 1st half</t>
+  </si>
+  <si>
+    <t>29th july 2nd half</t>
+  </si>
+  <si>
+    <t>30th July</t>
+  </si>
+  <si>
+    <t>2nd Aug</t>
+  </si>
+  <si>
+    <t>3rd Aug</t>
+  </si>
+  <si>
+    <t>modifier</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>in same package</t>
+  </si>
+  <si>
+    <t>outside package</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes(without inheritance we can access it will work like a public in the same package)</t>
+  </si>
+  <si>
+    <t>Yes(with inheritance)</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>ProjectManager</t>
+  </si>
+  <si>
+    <t>method overriding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we can follow the same signature from the base class. </t>
+  </si>
+  <si>
+    <t>this signature we will use it in child class.</t>
+  </si>
+  <si>
+    <t>Final keyword</t>
+  </si>
+  <si>
+    <t>for class</t>
+  </si>
+  <si>
+    <t>for method</t>
+  </si>
+  <si>
+    <t>for variable</t>
+  </si>
+  <si>
+    <t>can't use that class as a base class i.e. to block inheritance.</t>
+  </si>
+  <si>
+    <t>will not override the method</t>
+  </si>
+  <si>
+    <t>can't change the value.</t>
+  </si>
+  <si>
+    <t>abstract class</t>
+  </si>
+  <si>
+    <t>interface</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1327,19 +1483,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1662,362 +1821,432 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="67.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="20.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="67.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="187.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="201.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:4" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:4" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="331.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:4" ht="331.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="316.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" ht="316.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="316.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" ht="316.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="144" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" ht="144" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="115.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" ht="115.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="201.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" ht="201.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="129.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4" ht="129.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="374.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:4" ht="374.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="201.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:4" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="230.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:4" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="129.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:4" ht="129.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -2026,10 +2255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE1226E-5D2F-46E0-9E99-EB60CC61BABD}">
-  <dimension ref="E5:G62"/>
+  <dimension ref="D5:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="F79" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2108,13 +2337,13 @@
       </c>
     </row>
     <row r="13" spans="5:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>80</v>
       </c>
       <c r="F13" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2129,8 +2358,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="5:7" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E15" s="10" t="s">
+    <row r="15" spans="5:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="E15" s="9" t="s">
         <v>86</v>
       </c>
       <c r="F15" t="s">
@@ -2151,7 +2380,7 @@
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>92</v>
       </c>
       <c r="F23" s="12" t="s">
@@ -2159,7 +2388,7 @@
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>93</v>
       </c>
       <c r="F24" s="12"/>
@@ -2173,7 +2402,7 @@
       <c r="E28" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2197,7 +2426,7 @@
       <c r="E31" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2234,7 +2463,7 @@
       <c r="E43" t="s">
         <v>110</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2271,7 +2500,7 @@
       <c r="E50" t="s">
         <v>119</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="9" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2326,13 +2555,153 @@
       </c>
     </row>
     <row r="61" spans="5:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="62" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D68" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D69" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D70" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D71" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D72" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F88" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G88" s="16"/>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F89" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F90" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F91" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Java Full Stack Curriculum-Customised_23 Days.xlsx
+++ b/Java Full Stack Curriculum-Customised_23 Days.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhin\Desktop\donws\tcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773D4012-607C-4588-926F-1F4050B0921D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566E0104-EA7A-471A-B206-17CDDD5037A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="309">
   <si>
     <t>Focus Area</t>
   </si>
@@ -989,6 +989,996 @@
     <t>it the java platform component that executes code</t>
   </si>
   <si>
+    <t>OOPs concepts.</t>
+  </si>
+  <si>
+    <t>data or object.</t>
+  </si>
+  <si>
+    <t>encapsulation</t>
+  </si>
+  <si>
+    <t>abstraction</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>com.companyname.projectname.purpose</t>
+  </si>
+  <si>
+    <t>com.companyname.projectname.model/dto/domain</t>
+  </si>
+  <si>
+    <t>we can use any one of them(model/dto/domain)
+this package is used to provide the objects to transfter from one layer to another. (data transfter object)</t>
+  </si>
+  <si>
+    <t>com.companyname.projectname.service</t>
+  </si>
+  <si>
+    <t>com.companyname.projectname.repository</t>
+  </si>
+  <si>
+    <t>com.companyname.projectname.utils</t>
+  </si>
+  <si>
+    <t>com.companyname.projectname.exceptions</t>
+  </si>
+  <si>
+    <t>will hold the business logic</t>
+  </si>
+  <si>
+    <t>will write all db related codes.</t>
+  </si>
+  <si>
+    <t>utilities to our application  : connecting to DB, closing connection with DB, password encryption/decryption etc.</t>
+  </si>
+  <si>
+    <t>setters  :are used to set the values</t>
+  </si>
+  <si>
+    <t>getters : are used to get the value.</t>
+  </si>
+  <si>
+    <t>to generate thesetters and getters : 1. follow steps in eclipse
+2. use lombok lib
+3. write all methods manually.</t>
+  </si>
+  <si>
+    <t>how to create the Object?</t>
+  </si>
+  <si>
+    <t>ClassName referenceName = new ClassName():</t>
+  </si>
+  <si>
+    <t>classname</t>
+  </si>
+  <si>
+    <t>referenceName</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>ClassName();</t>
+  </si>
+  <si>
+    <t>Name of the class which is used to create a reference.
+Reference : it’s a location which will hold the address of your object.</t>
+  </si>
+  <si>
+    <t>name used to refer the location.</t>
+  </si>
+  <si>
+    <t>will be used to create the object @ runtime.</t>
+  </si>
+  <si>
+    <t>constructor : to initialize the object (it will either assign the default value or provided value)</t>
+  </si>
+  <si>
+    <t>System.out.println()</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>println</t>
+  </si>
+  <si>
+    <t>it is a class defined in java.lang package(pakcage which is included by java implicitly so if we are using anything from this package then no need to write an import statement.).  This class is used to perform I/O operation from the console.</t>
+  </si>
+  <si>
+    <t>println method which is used to print some info on console.</t>
+  </si>
+  <si>
+    <t>ref.method</t>
+  </si>
+  <si>
+    <t>out is a static field of printstream : internally it has an object of printstream class.</t>
+  </si>
+  <si>
+    <t>To provide the values/ data:</t>
+  </si>
+  <si>
+    <t>1. setters</t>
+  </si>
+  <si>
+    <t>2. pC</t>
+  </si>
+  <si>
+    <t>after object creation if we want to make any chanages in to the object content.</t>
+  </si>
+  <si>
+    <t>to provide the data initially/ can we accepts the values @ the RT.</t>
+  </si>
+  <si>
+    <t>Scanner class .</t>
+  </si>
+  <si>
+    <t>new : will create the object @ the RT.</t>
+  </si>
+  <si>
+    <t>Whenever you will introduce the PC then java will withdraw a facility of providing the DC.</t>
+  </si>
+  <si>
+    <t>it is better to provide the DC.</t>
+  </si>
+  <si>
+    <t>01-07-2021 &amp; 02-07-2021</t>
+  </si>
+  <si>
+    <t>5th July &amp; 6th July</t>
+  </si>
+  <si>
+    <t>7th &amp; 8th July</t>
+  </si>
+  <si>
+    <t>9th July</t>
+  </si>
+  <si>
+    <t>12th July</t>
+  </si>
+  <si>
+    <t>13th July</t>
+  </si>
+  <si>
+    <t>14th july</t>
+  </si>
+  <si>
+    <t>15th July</t>
+  </si>
+  <si>
+    <t>16th july</t>
+  </si>
+  <si>
+    <t>19th July</t>
+  </si>
+  <si>
+    <t>20th july</t>
+  </si>
+  <si>
+    <t>21st July</t>
+  </si>
+  <si>
+    <t>22nd July &amp; 23rd July</t>
+  </si>
+  <si>
+    <t>26th July</t>
+  </si>
+  <si>
+    <t>27th July</t>
+  </si>
+  <si>
+    <t>27th July &amp; 28th July</t>
+  </si>
+  <si>
+    <t>28th July (post lunch) &amp; 29th july 1st half</t>
+  </si>
+  <si>
+    <t>29th july 2nd half</t>
+  </si>
+  <si>
+    <t>30th July</t>
+  </si>
+  <si>
+    <t>2nd Aug</t>
+  </si>
+  <si>
+    <t>3rd Aug</t>
+  </si>
+  <si>
+    <t>modifier</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>in same package</t>
+  </si>
+  <si>
+    <t>outside package</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes(without inheritance we can access it will work like a public in the same package)</t>
+  </si>
+  <si>
+    <t>Yes(with inheritance)</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>ProjectManager</t>
+  </si>
+  <si>
+    <t>method overriding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we can follow the same signature from the base class. </t>
+  </si>
+  <si>
+    <t>this signature we will use it in child class.</t>
+  </si>
+  <si>
+    <t>Final keyword</t>
+  </si>
+  <si>
+    <t>for class</t>
+  </si>
+  <si>
+    <t>for method</t>
+  </si>
+  <si>
+    <t>for variable</t>
+  </si>
+  <si>
+    <t>can't use that class as a base class i.e. to block inheritance.</t>
+  </si>
+  <si>
+    <t>will not override the method</t>
+  </si>
+  <si>
+    <t>can't change the value.</t>
+  </si>
+  <si>
+    <t>abstract class</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>// it will extend to Object class ===&gt; Object is super class for all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// if any class is not extending to someother class then by default </t>
+  </si>
+  <si>
+    <t>// it will extend to Object class.</t>
+  </si>
+  <si>
+    <t>// we can delcare 0 to N abstract methods.</t>
+  </si>
+  <si>
+    <t>// we can have abstract(non concrete ) methods + concrete methods.</t>
+  </si>
+  <si>
+    <t>// we can declare N nos of concrete methods.</t>
+  </si>
+  <si>
+    <t>// we can declare the variable or ref. we can declare===&gt; multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// can we declare the constructor?===&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// if yes : why: to initialize the field </t>
+  </si>
+  <si>
+    <t>// if No : why</t>
+  </si>
+  <si>
+    <t>// which type of constrcutors we can use?</t>
+  </si>
+  <si>
+    <t>// DC &amp; PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// if a class is extending an abstract class then it must override all the </t>
+  </si>
+  <si>
+    <t>// abstract methods or declare that class as an abstract class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// when we will mark a class with @Data annotation then </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// by default it will generate </t>
+  </si>
+  <si>
+    <t>// setters &amp; getters</t>
+  </si>
+  <si>
+    <t>// it will override : hashcode, equals toString.</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>it’s a contract whenver it is required we can inject the contract.</t>
+  </si>
+  <si>
+    <t>a class can implement N no of interfaces.</t>
+  </si>
+  <si>
+    <t>an interface can't implement or extend to class.</t>
+  </si>
+  <si>
+    <t>an interface can't implement another interface</t>
+  </si>
+  <si>
+    <t>an interface can extends multiple interfaces.</t>
+  </si>
+  <si>
+    <t>it can have variable declarations but all are final in nature</t>
+  </si>
+  <si>
+    <t>we can't create the object but we can create a reference.</t>
+  </si>
+  <si>
+    <t>it doesn't have a constructor.</t>
+  </si>
+  <si>
+    <t>As per JDK 8 we can declare the method definitions inside the interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object : </t>
+  </si>
+  <si>
+    <t>it is a parent class for all.(mother of all classes)</t>
+  </si>
+  <si>
+    <t>every class is directly or indirectly inheriting the object class.</t>
+  </si>
+  <si>
+    <t>equals(Object obj)</t>
+  </si>
+  <si>
+    <t>hashCode()</t>
+  </si>
+  <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>wait()</t>
+  </si>
+  <si>
+    <t>notify</t>
+  </si>
+  <si>
+    <t>notifyAll</t>
+  </si>
+  <si>
+    <t>clone()</t>
+  </si>
+  <si>
+    <t>Method Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Overriding status</t>
+  </si>
+  <si>
+    <t>it is expected that it should check the equality of our object.  
+Two situations for equals method :
+1. if we will override it
+2. if we will not override it: it will check the equality on the basis of references.</t>
+  </si>
+  <si>
+    <t>Equals</t>
+  </si>
+  <si>
+    <r>
+      <t>It is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>reflexive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: for any non-null reference value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>x.equals(x)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> should return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>symmetric</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: for any non-null reference values </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>x.equals(y)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> should return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> if and only if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>y.equals(x)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> returns </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>transitive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: for any non-null reference values </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>x.equals(y)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> returns </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>y.equals(z)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> returns </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>x.equals(z)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> should return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>consistent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: for any non-null reference values </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, multiple invocations of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>x.equals(y)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> consistently return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> or consistently return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, provided no information used in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>equals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> comparisons on the objects is modified.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For any non-null reference value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>x.equals(null)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> should return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Casting</t>
+  </si>
+  <si>
+    <t>1. upcasting : parent ref = child Object</t>
+  </si>
+  <si>
+    <t>2. down casting child ref = (ChildClass) parent_REF;</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1039,16 +2029,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">JDK, JRE concepts. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">All fundamental java concepts from scratch
+All fundamental java concepts from scratch
 Java Syntax and Class Review 
 Encapsulation 
 Sub classing
@@ -1060,297 +2041,697 @@
     </r>
   </si>
   <si>
-    <t>OOPs concepts.</t>
-  </si>
-  <si>
-    <t>data or object.</t>
-  </si>
-  <si>
-    <t>encapsulation</t>
-  </si>
-  <si>
-    <t>abstraction</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>com.companyname.projectname.purpose</t>
-  </si>
-  <si>
-    <t>com.companyname.projectname.model/dto/domain</t>
-  </si>
-  <si>
-    <t>we can use any one of them(model/dto/domain)
-this package is used to provide the objects to transfter from one layer to another. (data transfter object)</t>
-  </si>
-  <si>
-    <t>com.companyname.projectname.service</t>
-  </si>
-  <si>
-    <t>com.companyname.projectname.repository</t>
-  </si>
-  <si>
-    <t>com.companyname.projectname.utils</t>
-  </si>
-  <si>
-    <t>com.companyname.projectname.exceptions</t>
-  </si>
-  <si>
-    <t>will hold the business logic</t>
-  </si>
-  <si>
-    <t>will write all db related codes.</t>
-  </si>
-  <si>
-    <t>utilities to our application  : connecting to DB, closing connection with DB, password encryption/decryption etc.</t>
-  </si>
-  <si>
-    <t>setters  :are used to set the values</t>
-  </si>
-  <si>
-    <t>getters : are used to get the value.</t>
-  </si>
-  <si>
-    <t>to generate thesetters and getters : 1. follow steps in eclipse
-2. use lombok lib
-3. write all methods manually.</t>
-  </si>
-  <si>
-    <t>how to create the Object?</t>
-  </si>
-  <si>
-    <t>ClassName referenceName = new ClassName():</t>
-  </si>
-  <si>
-    <t>classname</t>
-  </si>
-  <si>
-    <t>referenceName</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>ClassName();</t>
-  </si>
-  <si>
-    <t>Name of the class which is used to create a reference.
-Reference : it’s a location which will hold the address of your object.</t>
-  </si>
-  <si>
-    <t>name used to refer the location.</t>
-  </si>
-  <si>
-    <t>will be used to create the object @ runtime.</t>
-  </si>
-  <si>
-    <t>constructor : to initialize the object (it will either assign the default value or provided value)</t>
-  </si>
-  <si>
-    <t>System.out.println()</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>println</t>
-  </si>
-  <si>
-    <t>it is a class defined in java.lang package(pakcage which is included by java implicitly so if we are using anything from this package then no need to write an import statement.).  This class is used to perform I/O operation from the console.</t>
-  </si>
-  <si>
-    <t>println method which is used to print some info on console.</t>
-  </si>
-  <si>
-    <t>ref.method</t>
-  </si>
-  <si>
-    <t>out is a static field of printstream : internally it has an object of printstream class.</t>
-  </si>
-  <si>
-    <t>To provide the values/ data:</t>
-  </si>
-  <si>
-    <t>1. setters</t>
-  </si>
-  <si>
-    <t>2. pC</t>
-  </si>
-  <si>
-    <t>after object creation if we want to make any chanages in to the object content.</t>
-  </si>
-  <si>
-    <t>to provide the data initially/ can we accepts the values @ the RT.</t>
-  </si>
-  <si>
-    <t>Scanner class .</t>
-  </si>
-  <si>
-    <t>new : will create the object @ the RT.</t>
-  </si>
-  <si>
-    <t>Whenever you will introduce the PC then java will withdraw a facility of providing the DC.</t>
-  </si>
-  <si>
-    <t>it is better to provide the DC.</t>
-  </si>
-  <si>
-    <t>01-07-2021 &amp; 02-07-2021</t>
-  </si>
-  <si>
-    <t>5th July &amp; 6th July</t>
-  </si>
-  <si>
-    <t>7th &amp; 8th July</t>
-  </si>
-  <si>
-    <t>9th July</t>
-  </si>
-  <si>
-    <t>12th July</t>
-  </si>
-  <si>
-    <t>13th July</t>
-  </si>
-  <si>
-    <t>14th july</t>
-  </si>
-  <si>
-    <t>15th July</t>
-  </si>
-  <si>
-    <t>16th july</t>
-  </si>
-  <si>
-    <t>19th July</t>
-  </si>
-  <si>
-    <t>20th july</t>
-  </si>
-  <si>
-    <t>21st July</t>
-  </si>
-  <si>
-    <t>22nd July &amp; 23rd July</t>
-  </si>
-  <si>
-    <t>26th July</t>
-  </si>
-  <si>
-    <t>27th July</t>
-  </si>
-  <si>
-    <t>27th July &amp; 28th July</t>
-  </si>
-  <si>
-    <t>28th July (post lunch) &amp; 29th july 1st half</t>
-  </si>
-  <si>
-    <t>29th july 2nd half</t>
-  </si>
-  <si>
-    <t>30th July</t>
-  </si>
-  <si>
-    <t>2nd Aug</t>
-  </si>
-  <si>
-    <t>3rd Aug</t>
-  </si>
-  <si>
-    <t>modifier</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>in same package</t>
-  </si>
-  <si>
-    <t>outside package</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>protected</t>
-  </si>
-  <si>
-    <t>public</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes(without inheritance we can access it will work like a public in the same package)</t>
-  </si>
-  <si>
-    <t>Yes(with inheritance)</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>ProjectManager</t>
-  </si>
-  <si>
-    <t>method overriding.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we can follow the same signature from the base class. </t>
-  </si>
-  <si>
-    <t>this signature we will use it in child class.</t>
-  </si>
-  <si>
-    <t>Final keyword</t>
-  </si>
-  <si>
-    <t>for class</t>
-  </si>
-  <si>
-    <t>for method</t>
-  </si>
-  <si>
-    <t>for variable</t>
-  </si>
-  <si>
-    <t>can't use that class as a base class i.e. to block inheritance.</t>
-  </si>
-  <si>
-    <t>will not override the method</t>
-  </si>
-  <si>
-    <t>can't change the value.</t>
-  </si>
-  <si>
-    <t>abstract class</t>
-  </si>
-  <si>
-    <t>interface</t>
+    <t>Array : Employee[] employees=new Employee[10];</t>
+  </si>
+  <si>
+    <t>it will hold 10 employee references &amp; each one of them will hold an object.</t>
+  </si>
+  <si>
+    <t>when we will react to the last limit automatically it should increase the size of the array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection: </t>
+  </si>
+  <si>
+    <t>They are dynamic in nature</t>
+  </si>
+  <si>
+    <t>it is following DS impl internally.</t>
+  </si>
+  <si>
+    <t>collection is an object that is capable to hold group of object (may be hetrogenous object).</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>lib</t>
+  </si>
+  <si>
+    <t>Framework Vs Lib.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Framework : it’s a well organized workflow &amp; it contains the impl of ur workflow. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>To decide this workflow they are following architectures.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">lib : it will hold the functionality.  </t>
+  </si>
+  <si>
+    <t>diff between 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection : </t>
+  </si>
+  <si>
+    <t>2. Two Dim.: Map</t>
+  </si>
+  <si>
+    <t>1. One Dim: List , Set , Queue</t>
+  </si>
+  <si>
+    <t>Abstract Class : it is implementing 2 interfaces &amp; each one is having 2 methods</t>
+  </si>
+  <si>
+    <t>can I override 2 methods in abstract class &amp; remaining will be implemented by the child classes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concrete Classes :3 </t>
+  </si>
+  <si>
+    <t>common stuff we will implement in abstract class &amp; uncommon method impl will be with concrete classes.</t>
+  </si>
+  <si>
+    <t>designing the contracts</t>
+  </si>
+  <si>
+    <t>implement all contract and override the common req &amp; left others with child classes.</t>
+  </si>
+  <si>
+    <t>override all abstract method and write the implementation as per req.</t>
+  </si>
+  <si>
+    <t>Iterable (i)</t>
+  </si>
+  <si>
+    <t>used to perform the iteration of ur collection.</t>
+  </si>
+  <si>
+    <t>Collection(i)</t>
+  </si>
+  <si>
+    <t>it would be the parent interface for entire collection framework.  Common collections methods are declared in Collection (i). Add, get, addall, remove, etc.</t>
+  </si>
+  <si>
+    <t>All abstract class names are starting with Abstract word general syntax : AbstractXXX where XXX is name of the class.</t>
+  </si>
+  <si>
+    <t>all interface names should end with able /tor/service/repository. Collection</t>
+  </si>
+  <si>
+    <t>List (i)</t>
+  </si>
+  <si>
+    <t>AbstractLIst</t>
+  </si>
+  <si>
+    <t>will extend the AbstractCollection &amp; implement List(i)</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>will hold all common methods which are required for list collection. We want to hold the duplicates</t>
+  </si>
+  <si>
+    <t>searching is priority.</t>
+  </si>
+  <si>
+    <t>random insertion or deletion is the priority.</t>
+  </si>
+  <si>
+    <t>Array Vs AL</t>
+  </si>
+  <si>
+    <t>Basis</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <r>
+      <t>An </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> is a dynamically-created object. It serves as a container that holds the constant number of values of the same type. It has a contiguous memory location.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> is a class of Java </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Collections</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> framework. It contains popular classes like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vector, HashTable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>HashMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Static/ Dynamic</t>
+  </si>
+  <si>
+    <r>
+      <t>Array is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> in size.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ArrayList is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>dynamic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> in size.</t>
+    </r>
+  </si>
+  <si>
+    <t>Resizable</t>
+  </si>
+  <si>
+    <r>
+      <t>An array is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>fixed-length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> data structure.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ArrayList is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>variable-length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> data structure. It can be resized itself when needed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Initialization</t>
+  </si>
+  <si>
+    <t>It is mandatory to provide the size of an array while initializing it directly or indirectly.</t>
+  </si>
+  <si>
+    <t>We can create an instance of ArrayList without specifying its size. Java creates ArrayList of default size.</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <r>
+      <t>It performs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>fast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> in comparison to ArrayList because of fixed size.</t>
+    </r>
+  </si>
+  <si>
+    <t>ArrayList is internally backed by the array in Java. The resize operation in ArrayList slows down the performance.</t>
+  </si>
+  <si>
+    <t>Primitive/ Generic type</t>
+  </si>
+  <si>
+    <r>
+      <t>An array can store both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>objects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>primitives</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> type.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>We cannot store </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>primitive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> type in ArrayList. It automatically converts primitive type to object.</t>
+    </r>
+  </si>
+  <si>
+    <t>Iterating Values</t>
+  </si>
+  <si>
+    <r>
+      <t>We use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> loop or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>for each</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> loop to iterate over an array.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>We use an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>iterator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> to iterate over ArrayList.</t>
+    </r>
+  </si>
+  <si>
+    <t>Type-Safety</t>
+  </si>
+  <si>
+    <t>We cannot use generics along with array because it is not a convertible type of array.</t>
+  </si>
+  <si>
+    <r>
+      <t>ArrayList allows us to store only </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>generic/ type, that's why it is type-safe.</t>
+    </r>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <r>
+      <t>Array provides a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> variable which denotes the length of an array.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ArrayList provides the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>size()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> method to determine the size of ArrayList.</t>
+    </r>
+  </si>
+  <si>
+    <t>Adding Elements</t>
+  </si>
+  <si>
+    <r>
+      <t>We can add elements in an array by using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>assignment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>operator.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Java provides the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>add()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> method to add elements in the ArrayList.</t>
+    </r>
+  </si>
+  <si>
+    <t>Single/ Multi-Dimensional</t>
+  </si>
+  <si>
+    <r>
+      <t>Array can be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>multi-dimensional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ArrayList is always </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>single-dimensional</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1391,8 +2772,59 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF353833"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF353833"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF353833"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1429,8 +2861,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CCBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFF1EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1453,11 +2915,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC7CCBE"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC7CCBE"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC7CCBE"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC7CCBE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC7CCBE"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFC7CCBE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFC7CCBE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC7CCBE"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC7CCBE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC7CCBE"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC7CCBE"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1487,6 +3006,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1496,9 +3018,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1823,11 +3384,11 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.77734375" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" style="4" customWidth="1"/>
@@ -1837,13 +3398,13 @@
     <col min="6" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:4" ht="21">
+      <c r="B1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1854,23 +3415,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="187.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="187.2">
       <c r="A3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="273.60000000000002">
       <c r="A4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>23</v>
@@ -1879,9 +3440,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="409.6">
       <c r="A5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>26</v>
@@ -1893,9 +3454,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="409.6">
       <c r="A6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>24</v>
@@ -1907,9 +3468,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="409.6">
       <c r="A7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>25</v>
@@ -1921,9 +3482,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="201.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="201.6">
       <c r="A8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
@@ -1935,9 +3496,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="86.4">
       <c r="A9" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>28</v>
@@ -1946,9 +3507,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="158.4">
       <c r="A10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>31</v>
@@ -1957,9 +3518,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="129.6">
       <c r="A11" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>32</v>
@@ -1971,9 +3532,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="331.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="331.2">
       <c r="A12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>33</v>
@@ -1985,7 +3546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="316.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="316.8" hidden="1">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1996,7 +3557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="316.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="316.8" hidden="1">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2007,7 +3568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="144" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="144" hidden="1">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2018,7 +3579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="115.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="115.2" hidden="1">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2029,7 +3590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="201.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="201.6" hidden="1">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
@@ -2040,7 +3601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="129.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="129.6" hidden="1">
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2051,9 +3612,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>34</v>
@@ -2065,9 +3626,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="43.2">
       <c r="A20" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>36</v>
@@ -2079,9 +3640,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="72">
       <c r="A21" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -2093,9 +3654,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="374.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="374.4">
       <c r="A22" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>38</v>
@@ -2107,9 +3668,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28.8">
       <c r="A23" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>39</v>
@@ -2121,9 +3682,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="201.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="201.6">
       <c r="A24" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>40</v>
@@ -2135,9 +3696,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="230.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="230.4">
       <c r="A25" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>41</v>
@@ -2149,7 +3710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="129.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="129.6" hidden="1">
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -2160,9 +3721,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="409.6">
       <c r="A27" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>42</v>
@@ -2174,9 +3735,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="273.60000000000002">
       <c r="A28" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>43</v>
@@ -2188,9 +3749,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="28.8">
       <c r="A29" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>44</v>
@@ -2202,9 +3763,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="28.8">
       <c r="A30" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>45</v>
@@ -2216,9 +3777,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="43.2">
       <c r="A31" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>46</v>
@@ -2230,9 +3791,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>47</v>
@@ -2255,20 +3816,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE1226E-5D2F-46E0-9E99-EB60CC61BABD}">
-  <dimension ref="D5:G96"/>
+  <dimension ref="D5:H228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F79" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="E218" workbookViewId="0">
+      <selection activeCell="F226" sqref="F226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="5" max="5" width="43" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.21875" customWidth="1"/>
-    <col min="7" max="7" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:7">
       <c r="F5" t="s">
         <v>65</v>
       </c>
@@ -2276,7 +3838,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:7">
       <c r="F6" t="s">
         <v>66</v>
       </c>
@@ -2284,7 +3846,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:7">
       <c r="F7" t="s">
         <v>69</v>
       </c>
@@ -2292,7 +3854,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
         <v>65</v>
       </c>
@@ -2303,7 +3865,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
         <v>71</v>
       </c>
@@ -2314,7 +3876,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
         <v>74</v>
       </c>
@@ -2325,7 +3887,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
         <v>77</v>
       </c>
@@ -2336,7 +3898,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="5:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:7" ht="26.4">
       <c r="E13" s="9" t="s">
         <v>80</v>
       </c>
@@ -2347,7 +3909,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
         <v>83</v>
       </c>
@@ -2358,7 +3920,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="5:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:7" ht="26.4">
       <c r="E15" s="9" t="s">
         <v>86</v>
       </c>
@@ -2369,340 +3931,920 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:6">
       <c r="E21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="23" spans="5:6">
+      <c r="E23" s="10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F24" s="15"/>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
+    <row r="28" spans="5:6" ht="52.8">
+      <c r="E28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="5:6" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
+      <c r="F28" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="9" t="s">
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6">
+      <c r="E30" t="s">
         <v>98</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
+    <row r="31" spans="5:6" ht="39.6">
+      <c r="E31" t="s">
         <v>99</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="5:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
+    <row r="32" spans="5:6">
+      <c r="E32" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="9" t="s">
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
+      <c r="F36" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" ht="37.200000000000003" customHeight="1">
+      <c r="E37" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F37" s="16"/>
+    </row>
+    <row r="40" spans="5:6">
+      <c r="E40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="5:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
+    <row r="42" spans="5:6">
+      <c r="E42" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
+    <row r="43" spans="5:6" ht="52.8">
+      <c r="E43" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="43" spans="5:6" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
+      <c r="F43" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6">
+      <c r="E44" t="s">
         <v>110</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
+    <row r="45" spans="5:6">
+      <c r="E45" t="s">
         <v>111</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
+    <row r="46" spans="5:6">
+      <c r="E46" t="s">
         <v>112</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" t="s">
+    <row r="49" spans="5:7">
+      <c r="E49" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
+    <row r="50" spans="5:7" ht="66">
+      <c r="E50" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="50" spans="5:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="E50" t="s">
+      <c r="F50" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7">
+      <c r="E51" t="s">
         <v>119</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7">
+      <c r="E52" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
-        <v>120</v>
-      </c>
-      <c r="F51" t="s">
+    <row r="55" spans="5:7">
+      <c r="E55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7">
+      <c r="E57" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E57" t="s">
+    <row r="58" spans="5:7">
+      <c r="E58" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7">
+      <c r="E59" t="s">
         <v>127</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E59" t="s">
-        <v>128</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>130</v>
       </c>
-      <c r="G59" t="s">
+    </row>
+    <row r="60" spans="5:7">
+      <c r="F60" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F60" t="s">
+    <row r="61" spans="5:7" ht="26.4">
+      <c r="F61" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="5:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="F61" s="9" t="s">
+    <row r="62" spans="5:7">
+      <c r="F62" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F62" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D68" s="14" t="s">
+    <row r="68" spans="4:7">
+      <c r="D68" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="F68" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="G68" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G68" s="14" t="s">
+    </row>
+    <row r="69" spans="4:7">
+      <c r="D69" s="11" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D69" s="14" t="s">
+      <c r="E69" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7">
+      <c r="D70" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E70" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7">
+      <c r="D71" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7">
+      <c r="D72" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7">
+      <c r="G77" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7">
+      <c r="G78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7">
+      <c r="G79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7">
+      <c r="G84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7">
+      <c r="G85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7">
+      <c r="G86" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7">
+      <c r="F88" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" spans="6:7">
+      <c r="F89" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7">
+      <c r="F90" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7">
+      <c r="F91" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" ht="27.6">
+      <c r="F95" t="s">
+        <v>181</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" ht="27.6">
+      <c r="F96" t="s">
+        <v>182</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7">
+      <c r="F99" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7">
+      <c r="G100" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7">
+      <c r="G101" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7">
+      <c r="G103" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7">
+      <c r="G104" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7">
+      <c r="G105" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="6:7">
+      <c r="G106" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="6:7">
+      <c r="G107" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" spans="6:7">
+      <c r="G108" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7">
+      <c r="G109" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="6:7">
+      <c r="G111" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="112" spans="6:7">
+      <c r="G112" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7">
+      <c r="G114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7">
+      <c r="G115" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7">
+      <c r="G119" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="6:7">
+      <c r="G120" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="121" spans="6:7">
+      <c r="G121" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="122" spans="6:7">
+      <c r="G122" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" spans="6:7">
+      <c r="F126" t="s">
+        <v>201</v>
+      </c>
+      <c r="G126" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="127" spans="6:7">
+      <c r="G127" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="128" spans="6:7">
+      <c r="G128" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="129" spans="6:8">
+      <c r="G129" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="130" spans="6:8">
+      <c r="G130" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="6:8">
+      <c r="G131" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="132" spans="6:8">
+      <c r="G132" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="133" spans="6:8">
+      <c r="G133" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="134" spans="6:8">
+      <c r="G134" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="138" spans="6:8">
+      <c r="F138" t="s">
+        <v>211</v>
+      </c>
+      <c r="G138" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="139" spans="6:8">
+      <c r="G139" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="140" spans="6:8">
+      <c r="F140" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="G140" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="H140" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="141" spans="6:8" ht="52.8">
+      <c r="F141" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G141" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="H141" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="6:8">
+      <c r="F142" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="6:8">
+      <c r="F143" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="144" spans="6:8">
+      <c r="F144" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="145" spans="6:8">
+      <c r="F145" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F69" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G69" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D70" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E70" s="14" t="s">
+    </row>
+    <row r="146" spans="6:8">
+      <c r="F146" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F70" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D71" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E71" s="14" t="s">
+    </row>
+    <row r="147" spans="6:8">
+      <c r="F147" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F71" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D72" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G77" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G78" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G79" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G84" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G85" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G86" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F88" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G88" s="16"/>
-    </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F89" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F90" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F91" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F95" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F96" t="s">
-        <v>183</v>
-      </c>
+    </row>
+    <row r="152" spans="6:8">
+      <c r="F152" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="153" spans="6:8" ht="15">
+      <c r="G153" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="154" spans="6:8" ht="30">
+      <c r="G154" s="20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="155" spans="6:8" ht="45">
+      <c r="G155" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="156" spans="6:8" ht="45">
+      <c r="G156" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="157" spans="6:8" ht="15">
+      <c r="G157" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="160" spans="6:8">
+      <c r="F160" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="161" spans="6:7">
+      <c r="G161" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="162" spans="6:7">
+      <c r="G162" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="167" spans="6:7">
+      <c r="F167" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="169" spans="6:7">
+      <c r="F169" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="170" spans="6:7" ht="26.4">
+      <c r="F170" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="172" spans="6:7" ht="26.4">
+      <c r="F172" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="6:7">
+      <c r="F174" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="6:7" ht="26.4">
+      <c r="F175" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="176" spans="6:7">
+      <c r="F176" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" spans="5:7">
+      <c r="F177" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="178" spans="5:7" ht="39.6">
+      <c r="F178" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="179" spans="5:7">
+      <c r="F179" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="180" spans="5:7">
+      <c r="F180" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="182" spans="5:7">
+      <c r="E182" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="F182" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G182" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="187" spans="5:7">
+      <c r="F187" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="188" spans="5:7">
+      <c r="F188" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="189" spans="5:7">
+      <c r="F189" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="194" spans="5:7">
+      <c r="F194" t="s">
+        <v>201</v>
+      </c>
+      <c r="G194" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="196" spans="5:7" ht="39.6">
+      <c r="E196" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F196" t="s">
+        <v>252</v>
+      </c>
+      <c r="G196" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="197" spans="5:7">
+      <c r="F197" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="199" spans="5:7">
+      <c r="F199" t="s">
+        <v>254</v>
+      </c>
+      <c r="G199" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="204" spans="5:7">
+      <c r="F204" t="s">
+        <v>259</v>
+      </c>
+      <c r="G204" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="205" spans="5:7" ht="39.6">
+      <c r="F205" t="s">
+        <v>261</v>
+      </c>
+      <c r="G205" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="207" spans="5:7">
+      <c r="F207" t="s">
+        <v>265</v>
+      </c>
+      <c r="G207" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="208" spans="5:7">
+      <c r="F208" t="s">
+        <v>266</v>
+      </c>
+      <c r="G208" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="209" spans="5:7">
+      <c r="F209" t="s">
+        <v>268</v>
+      </c>
+      <c r="G209" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="210" spans="5:7">
+      <c r="F210" t="s">
+        <v>269</v>
+      </c>
+      <c r="G210" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="214" spans="5:7">
+      <c r="F214" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="215" spans="5:7" ht="13.8" thickBot="1"/>
+    <row r="216" spans="5:7" ht="13.8" thickBot="1">
+      <c r="E216" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="F216" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G216" s="31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="217" spans="5:7" ht="60.6" thickBot="1">
+      <c r="E217" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="F217" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="G217" s="26" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="218" spans="5:7" ht="15.6" thickBot="1">
+      <c r="E218" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="F218" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="G218" s="28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="219" spans="5:7" ht="30.6" thickBot="1">
+      <c r="E219" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="F219" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="G219" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="220" spans="5:7" ht="30.6" thickBot="1">
+      <c r="E220" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="F220" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="G220" s="28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="221" spans="5:7" ht="30.6" thickBot="1">
+      <c r="E221" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="F221" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="G221" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="222" spans="5:7" ht="30.6" thickBot="1">
+      <c r="E222" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="F222" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="G222" s="28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="223" spans="5:7" ht="30.6" thickBot="1">
+      <c r="E223" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="F223" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="G223" s="26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="224" spans="5:7" ht="30.6" thickBot="1">
+      <c r="E224" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="F224" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="G224" s="28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="225" spans="5:7" ht="30.6" thickBot="1">
+      <c r="E225" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="F225" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="G225" s="26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="226" spans="5:7" ht="30.6" thickBot="1">
+      <c r="E226" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="F226" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="G226" s="28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="227" spans="5:7" ht="15.6" thickBot="1">
+      <c r="E227" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="F227" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="G227" s="26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="228" spans="5:7" ht="15">
+      <c r="F228" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2710,5 +4852,6 @@
     <mergeCell ref="F36:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Java Full Stack Curriculum-Customised_23 Days.xlsx
+++ b/Java Full Stack Curriculum-Customised_23 Days.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhin\Desktop\donws\tcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566E0104-EA7A-471A-B206-17CDDD5037A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41704B7-9D28-4E18-BB02-1C34398A6B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="388">
   <si>
     <t>Focus Area</t>
   </si>
@@ -2726,12 +2726,511 @@
       <t>single-dimensional</t>
     </r>
   </si>
+  <si>
+    <t>ArrayLIst</t>
+  </si>
+  <si>
+    <t>searching is easy</t>
+  </si>
+  <si>
+    <t>searching is bit difficult.</t>
+  </si>
+  <si>
+    <t>it is of type doubly.</t>
+  </si>
+  <si>
+    <t>unidirectional</t>
+  </si>
+  <si>
+    <t>hashCode method</t>
+  </si>
+  <si>
+    <t>Returns a hash code value for the object. This method is supported for the benefit of hash tables such as those provided by HashMap.</t>
+  </si>
+  <si>
+    <r>
+      <t>The general contract of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>hashCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Whenever it is invoked on the same object more than once during an execution of a Java application, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>hashCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> method must consistently return the same integer, provided no information used in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>equals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> comparisons on the object is modified. This integer need not remain consistent from one execution of an application to another execution of the same application.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If two objects are equal according to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>equals(Object)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> method, then calling the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>hashCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> method on each of the two objects must produce the same integer result.</t>
+    </r>
+  </si>
+  <si>
+    <t>It is not required that if two objects are unequal according to the equals(java.lang.Object) method, then calling the hashCode method on each of the two objects must produce distinct integer results. However, the programmer should be aware that producing distinct integer results for unequal objects may improve the performance of hash tables.</t>
+  </si>
+  <si>
+    <r>
+      <t>As much as is reasonably practical, the hashCode method defined by class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> does return distinct integers for distinct objects. (This is typically implemented by converting the internal address of the object into an integer, but this implementation technique is not required by the Java</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF353833"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> programming language.)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedHashSet : </t>
+  </si>
+  <si>
+    <t>HashSet</t>
+  </si>
+  <si>
+    <t>hashset is faster than LHS.</t>
+  </si>
+  <si>
+    <t>Sets are backed by Map.</t>
+  </si>
+  <si>
+    <t>LinkedHashSet</t>
+  </si>
+  <si>
+    <t>TreeSet</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>LinkedHashMap</t>
+  </si>
+  <si>
+    <t>TreeMap</t>
+  </si>
+  <si>
+    <t>ONE Dim</t>
+  </si>
+  <si>
+    <t>TwoDim</t>
+  </si>
+  <si>
+    <t>only one object</t>
+  </si>
+  <si>
+    <t>key, value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. HashMap order can't predict ===&gt;
+2. it will allow only 1 null as a key
+3. it will allow multiple null as a value.
+4. if key is repeated then it will replace old value with new value.
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. HashMap order insertion order but no duplication of keys ===&gt;
+2. it will allow only 1 null as a key
+3. it will allow multiple null as a value.
+4. if key is repeated then it will replace old value with new value.
+ </t>
+  </si>
+  <si>
+    <t>order is not imp but no duplication is imp then we will use HashMap</t>
+  </si>
+  <si>
+    <t>insertion order is expected then we will use LHM.</t>
+  </si>
+  <si>
+    <t>Performancewise it is preferred.</t>
+  </si>
+  <si>
+    <t>1. will provide the sorted order based on the key
+2. we can't provide null as a key==&gt; will throw NPE
+3. will maintain the sorted order ===&gt; BST.
+4. to do the sorting ==&gt; Comparable / Comparator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface : </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Functional Interface : which contains only one abstract method.
+@FunctionalInterface annotation</t>
+  </si>
+  <si>
+    <t>Comparator:, Runnable, etc.</t>
+  </si>
+  <si>
+    <t>Lambda Expression : they are the way through which we can visualize the FP in the java Ooworld.  Objects are the base for java prog.  And we can never have a function without an object , that's y java provides a support for using lambda expressions only with functional interfaces.</t>
+  </si>
+  <si>
+    <t>Why do we need the lambda Expression:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. reduced lines of code 
+2. sequential and parallel execution support : stream api
+3. Passing Behaviors into methods: 
+</t>
+  </si>
+  <si>
+    <t>()-&gt;{} // no paramters void result.</t>
+  </si>
+  <si>
+    <t>()-&gt;42 // no parameters expression body</t>
+  </si>
+  <si>
+    <t>()-&gt;null no parameters expression body</t>
+  </si>
+  <si>
+    <t>()-.{return 42;} // no parameters with block of code and return statement.</t>
+  </si>
+  <si>
+    <t>()-&gt;{Sysout();} // no parameters without return or void</t>
+  </si>
+  <si>
+    <t>()-&gt;{
+if(true) 
+return true;
+else 
+return false;}  // multiple return statements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample = (a,b)-&gt;a+b; // lambda expression </t>
+  </si>
+  <si>
+    <t>System.out.println(sample.sum(100, 200));</t>
+  </si>
+  <si>
+    <t>(int x) -&gt; x+1             // Single declared-type argument</t>
+  </si>
+  <si>
+    <t>(int x) -&gt; { return x+1; } // same as above</t>
+  </si>
+  <si>
+    <t>(x) -&gt; x+1                 // Single inferred-type argument, same as below</t>
+  </si>
+  <si>
+    <t>x -&gt; x+1                   // Parenthesis optional for single inferred-type case</t>
+  </si>
+  <si>
+    <t>(String s) -&gt; s.length()   // Single declared-type argument</t>
+  </si>
+  <si>
+    <t>(Thread t) -&gt; { t.start(); } // Single declared-type argument</t>
+  </si>
+  <si>
+    <t>s -&gt; s.length()              // Single inferred-type argument</t>
+  </si>
+  <si>
+    <t>t -&gt; { t.start(); }          // Single inferred-type argument</t>
+  </si>
+  <si>
+    <t>(int x, int y) -&gt; x+y      // Multiple declared-type parameters</t>
+  </si>
+  <si>
+    <t>(x,y) -&gt; x+y               // Multiple inferred-type parameters</t>
+  </si>
+  <si>
+    <t>(x, final y) -&gt; x+y        // Illegal: can't modify inferred-type parameters</t>
+  </si>
+  <si>
+    <t>(x, int y) -&gt; x+y          // Illegal: can't mix inferred and declared types</t>
+  </si>
+  <si>
+    <t>Function Interfaces :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface </t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>UnaryOperator&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>T apply(T t)</t>
+  </si>
+  <si>
+    <r>
+      <t>String::toLowerCase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212529"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF212529"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Math::tan</t>
+    </r>
+  </si>
+  <si>
+    <t>BinaryOperator&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>T apply(T t1, T t2)</t>
+  </si>
+  <si>
+    <r>
+      <t>BigInteger::add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212529"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF212529"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Math::pow</t>
+    </r>
+  </si>
+  <si>
+    <t>Function&lt;T, R&gt;</t>
+  </si>
+  <si>
+    <t>R apply(T t)</t>
+  </si>
+  <si>
+    <r>
+      <t>Arrays::asList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212529"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF212529"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Integer::toBinaryString</t>
+    </r>
+  </si>
+  <si>
+    <t>Predicate&lt;T, U&gt;</t>
+  </si>
+  <si>
+    <t>boolean test(T t, U u)</t>
+  </si>
+  <si>
+    <r>
+      <t>String::isEmpty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212529"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF212529"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Character::isDigit</t>
+    </r>
+  </si>
+  <si>
+    <t>Supplier&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>T get()</t>
+  </si>
+  <si>
+    <r>
+      <t>LocalDate::now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212529"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF212529"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Instant::now</t>
+    </r>
+  </si>
+  <si>
+    <t>Consumer&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>void accept(T t)</t>
+  </si>
+  <si>
+    <r>
+      <t>System.out::println</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212529"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF212529"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Error::printStackTrace</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2823,6 +3322,37 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="6"/>
+      <color rgb="FF353833"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212529"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2892,7 +3422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2972,11 +3502,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3009,15 +3549,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3060,8 +3591,40 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3384,8 +3947,8 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -3399,10 +3962,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="15.6">
       <c r="B2" s="7" t="s">
@@ -3816,18 +4379,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE1226E-5D2F-46E0-9E99-EB60CC61BABD}">
-  <dimension ref="D5:H228"/>
+  <dimension ref="D5:J289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E218" workbookViewId="0">
-      <selection activeCell="F226" sqref="F226"/>
+    <sheetView tabSelected="1" topLeftCell="D247" workbookViewId="0">
+      <selection activeCell="F255" sqref="F255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="5" max="5" width="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.21875" customWidth="1"/>
+    <col min="6" max="6" width="80.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="65.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.77734375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="5:7">
@@ -3945,7 +4509,7 @@
       <c r="E23" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="35" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3953,7 +4517,7 @@
       <c r="E24" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="27" spans="5:6">
       <c r="E27" t="s">
@@ -4001,7 +4565,7 @@
       <c r="E36" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="36" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4009,7 +4573,7 @@
       <c r="E37" t="s">
         <v>105</v>
       </c>
-      <c r="F37" s="16"/>
+      <c r="F37" s="36"/>
     </row>
     <row r="40" spans="5:6">
       <c r="E40" t="s">
@@ -4260,7 +4824,7 @@
       <c r="F95" t="s">
         <v>181</v>
       </c>
-      <c r="G95" s="24" t="s">
+      <c r="G95" s="21" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4268,7 +4832,7 @@
       <c r="F96" t="s">
         <v>182</v>
       </c>
-      <c r="G96" s="24" t="s">
+      <c r="G96" s="21" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4424,42 +4988,42 @@
       </c>
     </row>
     <row r="140" spans="6:8">
-      <c r="F140" s="17" t="s">
+      <c r="F140" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G140" s="17" t="s">
+      <c r="G140" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="H140" s="17" t="s">
+      <c r="H140" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="141" spans="6:8" ht="52.8">
-      <c r="F141" s="18" t="s">
+    <row r="141" spans="6:8" ht="66">
+      <c r="F141" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="G141" s="19" t="s">
+      <c r="G141" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="H141" s="18" t="s">
+      <c r="H141" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="142" spans="6:8">
-      <c r="F142" s="18" t="s">
+      <c r="F142" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="G142" s="18"/>
-      <c r="H142" s="18" t="s">
+      <c r="G142" s="15"/>
+      <c r="H142" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="143" spans="6:8">
-      <c r="F143" s="18" t="s">
+      <c r="F143" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="G143" s="18"/>
-      <c r="H143" s="18" t="s">
+      <c r="G143" s="15"/>
+      <c r="H143" s="15" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4472,7 +5036,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="145" spans="6:8">
+    <row r="145" spans="6:10">
       <c r="F145" s="11" t="s">
         <v>217</v>
       </c>
@@ -4481,7 +5045,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="146" spans="6:8">
+    <row r="146" spans="6:10">
       <c r="F146" s="11" t="s">
         <v>218</v>
       </c>
@@ -4490,7 +5054,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="147" spans="6:8">
+    <row r="147" spans="6:10">
       <c r="F147" s="11" t="s">
         <v>219</v>
       </c>
@@ -4499,39 +5063,63 @@
         <v>164</v>
       </c>
     </row>
-    <row r="152" spans="6:8">
+    <row r="152" spans="6:10" ht="39.6">
       <c r="F152" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="153" spans="6:8" ht="15">
-      <c r="G153" s="20" t="s">
+      <c r="I152" t="s">
+        <v>314</v>
+      </c>
+      <c r="J152" s="31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="153" spans="6:10" ht="15">
+      <c r="G153" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="6:8" ht="30">
-      <c r="G154" s="20" t="s">
+    <row r="154" spans="6:10" ht="30">
+      <c r="G154" s="17" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="155" spans="6:8" ht="45">
-      <c r="G155" s="20" t="s">
+      <c r="J154" s="30" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="155" spans="6:10" ht="45">
+      <c r="G155" s="17" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="156" spans="6:8" ht="45">
-      <c r="G156" s="20" t="s">
+      <c r="J155" s="32"/>
+    </row>
+    <row r="156" spans="6:10" ht="78">
+      <c r="G156" s="17" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="157" spans="6:8" ht="15">
-      <c r="G157" s="20" t="s">
+      <c r="J156" s="30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="157" spans="6:10" ht="49.2">
+      <c r="G157" s="17" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="160" spans="6:8">
+      <c r="J157" s="30" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="158" spans="6:10" ht="118.8">
+      <c r="J158" s="33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="160" spans="6:10" ht="63">
       <c r="F160" t="s">
         <v>231</v>
+      </c>
+      <c r="J160" s="30" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="161" spans="6:7">
@@ -4600,13 +5188,13 @@
       </c>
     </row>
     <row r="182" spans="5:7">
-      <c r="E182" s="21" t="s">
+      <c r="E182" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="F182" s="22" t="s">
+      <c r="F182" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="G182" s="21" t="s">
+      <c r="G182" s="18" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4634,7 +5222,7 @@
       </c>
     </row>
     <row r="196" spans="5:7" ht="39.6">
-      <c r="E196" s="23" t="s">
+      <c r="E196" s="20" t="s">
         <v>255</v>
       </c>
       <c r="F196" t="s">
@@ -4712,146 +5300,462 @@
     </row>
     <row r="215" spans="5:7" ht="13.8" thickBot="1"/>
     <row r="216" spans="5:7" ht="13.8" thickBot="1">
-      <c r="E216" s="29" t="s">
+      <c r="E216" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="F216" s="30" t="s">
+      <c r="F216" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="G216" s="31" t="s">
+      <c r="G216" s="28" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="217" spans="5:7" ht="60.6" thickBot="1">
-      <c r="E217" s="25" t="s">
+      <c r="E217" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="F217" s="26" t="s">
+      <c r="F217" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="G217" s="26" t="s">
+      <c r="G217" s="23" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="218" spans="5:7" ht="15.6" thickBot="1">
-      <c r="E218" s="27" t="s">
+      <c r="E218" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="F218" s="28" t="s">
+      <c r="F218" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="G218" s="28" t="s">
+      <c r="G218" s="25" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="219" spans="5:7" ht="30.6" thickBot="1">
-      <c r="E219" s="25" t="s">
+      <c r="E219" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="F219" s="26" t="s">
+      <c r="F219" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="G219" s="26" t="s">
+      <c r="G219" s="23" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="220" spans="5:7" ht="30.6" thickBot="1">
-      <c r="E220" s="27" t="s">
+      <c r="E220" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="F220" s="28" t="s">
+      <c r="F220" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="G220" s="28" t="s">
+      <c r="G220" s="25" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="221" spans="5:7" ht="30.6" thickBot="1">
-      <c r="E221" s="25" t="s">
+      <c r="E221" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="F221" s="26" t="s">
+      <c r="F221" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="G221" s="26" t="s">
+      <c r="G221" s="23" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="222" spans="5:7" ht="30.6" thickBot="1">
-      <c r="E222" s="27" t="s">
+      <c r="E222" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="F222" s="28" t="s">
+      <c r="F222" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="G222" s="28" t="s">
+      <c r="G222" s="25" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="223" spans="5:7" ht="30.6" thickBot="1">
-      <c r="E223" s="25" t="s">
+      <c r="E223" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="F223" s="26" t="s">
+      <c r="F223" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="G223" s="26" t="s">
+      <c r="G223" s="23" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="224" spans="5:7" ht="30.6" thickBot="1">
-      <c r="E224" s="27" t="s">
+      <c r="E224" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="F224" s="28" t="s">
+      <c r="F224" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="G224" s="28" t="s">
+      <c r="G224" s="25" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="225" spans="5:7" ht="30.6" thickBot="1">
-      <c r="E225" s="25" t="s">
+    <row r="225" spans="5:9" ht="30.6" thickBot="1">
+      <c r="E225" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="F225" s="26" t="s">
+      <c r="F225" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="G225" s="26" t="s">
+      <c r="G225" s="23" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="226" spans="5:7" ht="30.6" thickBot="1">
-      <c r="E226" s="27" t="s">
+    <row r="226" spans="5:9" ht="30.6" thickBot="1">
+      <c r="E226" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="F226" s="28" t="s">
+      <c r="F226" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="G226" s="28" t="s">
+      <c r="G226" s="25" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="227" spans="5:7" ht="15.6" thickBot="1">
-      <c r="E227" s="25" t="s">
+    <row r="227" spans="5:9" ht="15.6" thickBot="1">
+      <c r="E227" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="F227" s="26" t="s">
+      <c r="F227" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="G227" s="26" t="s">
+      <c r="G227" s="23" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="228" spans="5:7" ht="15">
-      <c r="F228" s="32"/>
+    <row r="228" spans="5:9" ht="15">
+      <c r="F228" s="29"/>
+    </row>
+    <row r="230" spans="5:9">
+      <c r="E230" t="s">
+        <v>269</v>
+      </c>
+      <c r="F230" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="231" spans="5:9">
+      <c r="E231" t="s">
+        <v>311</v>
+      </c>
+      <c r="F231" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="232" spans="5:9">
+      <c r="E232" t="s">
+        <v>312</v>
+      </c>
+      <c r="F232" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="236" spans="5:9">
+      <c r="E236" t="s">
+        <v>321</v>
+      </c>
+      <c r="F236" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="237" spans="5:9">
+      <c r="F237" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="239" spans="5:9">
+      <c r="E239" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="240" spans="5:9" ht="66">
+      <c r="E240" t="s">
+        <v>322</v>
+      </c>
+      <c r="F240" t="s">
+        <v>327</v>
+      </c>
+      <c r="G240" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="H240" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="I240" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="241" spans="5:8" ht="66">
+      <c r="E241" t="s">
+        <v>325</v>
+      </c>
+      <c r="F241" t="s">
+        <v>328</v>
+      </c>
+      <c r="G241" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="H241" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="242" spans="5:8" ht="52.8">
+      <c r="E242" t="s">
+        <v>326</v>
+      </c>
+      <c r="F242" t="s">
+        <v>329</v>
+      </c>
+      <c r="G242" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="243" spans="5:8">
+      <c r="E243" t="s">
+        <v>330</v>
+      </c>
+      <c r="F243" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="244" spans="5:8">
+      <c r="E244" t="s">
+        <v>332</v>
+      </c>
+      <c r="F244" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="246" spans="5:8">
+      <c r="F246" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="247" spans="5:8" ht="39.6">
+      <c r="F247" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="248" spans="5:8">
+      <c r="F248" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="251" spans="5:8" ht="92.4">
+      <c r="F251" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="253" spans="5:8">
+      <c r="F253" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="255" spans="5:8" ht="66">
+      <c r="F255" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="258" spans="6:6">
+      <c r="F258" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="259" spans="6:6">
+      <c r="F259" s="37" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="260" spans="6:6">
+      <c r="F260" s="37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="261" spans="6:6">
+      <c r="F261" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="262" spans="6:6">
+      <c r="F262" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="263" spans="6:6" ht="66">
+      <c r="F263" s="38" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="265" spans="6:6">
+      <c r="F265" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="266" spans="6:6">
+      <c r="F266" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="267" spans="6:6">
+      <c r="F267" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="268" spans="6:6">
+      <c r="F268" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="269" spans="6:6">
+      <c r="F269" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="270" spans="6:6">
+      <c r="F270" s="37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="272" spans="6:6">
+      <c r="F272" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="273" spans="5:7">
+      <c r="F273" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="274" spans="5:7">
+      <c r="F274" s="37" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="275" spans="5:7">
+      <c r="F275" s="37" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="277" spans="5:7">
+      <c r="F277" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="278" spans="5:7">
+      <c r="F278" s="37" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="279" spans="5:7">
+      <c r="F279" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="280" spans="5:7">
+      <c r="F280" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="282" spans="5:7">
+      <c r="F282" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="283" spans="5:7" ht="13.8" thickBot="1">
+      <c r="E283" t="s">
+        <v>367</v>
+      </c>
+      <c r="F283" t="s">
+        <v>368</v>
+      </c>
+      <c r="G283" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="284" spans="5:7" ht="13.8" thickBot="1">
+      <c r="E284" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F284" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="G284" s="39" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="285" spans="5:7" ht="13.8" thickBot="1">
+      <c r="E285" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="F285" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="G285" s="39" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="286" spans="5:7" ht="13.8" thickBot="1">
+      <c r="E286" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="F286" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="G286" s="39" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="287" spans="5:7" ht="13.8" thickBot="1">
+      <c r="E287" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="F287" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="G287" s="39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="288" spans="5:7" ht="13.8" thickBot="1">
+      <c r="E288" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="F288" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="G288" s="39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="289" spans="5:7">
+      <c r="E289" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="F289" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="G289" s="39" t="s">
+        <v>387</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="F36:F37"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J152" r:id="rId1" tooltip="class in java.util" display="https://docs.oracle.com/javase/7/docs/api/java/util/HashMap.html" xr:uid="{D1D70A63-E585-4777-B1B8-CE6761EA6EF6}"/>
+    <hyperlink ref="J158" r:id="rId2" location="equals(java.lang.Object)" display="https://docs.oracle.com/javase/7/docs/api/java/lang/Object.html - equals(java.lang.Object)" xr:uid="{A047FB0F-E035-4FE4-816B-DC4050DCC62F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Java Full Stack Curriculum-Customised_23 Days.xlsx
+++ b/Java Full Stack Curriculum-Customised_23 Days.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhin\Desktop\donws\tcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFDE1E2-6078-4FD0-9C10-14C53003A975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C27EF8-3B2F-480E-9626-E598D0387BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java FullStack" sheetId="1" r:id="rId1"/>
-    <sheet name="Threads" sheetId="4" r:id="rId2"/>
-    <sheet name="reflection" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="Hibernate" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
+    <sheet name="Threads" sheetId="4" r:id="rId4"/>
+    <sheet name="reflection" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId6"/>
+    <sheet name="Spring" sheetId="9" r:id="rId7"/>
+    <sheet name="spring security" sheetId="10" r:id="rId8"/>
+    <sheet name="concurrenthashmap" sheetId="5" r:id="rId9"/>
+    <sheet name="Design Pattern" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="893">
   <si>
     <t>Focus Area</t>
   </si>
@@ -5455,6 +5461,105 @@
     <t>when the specified time is completed sleep work Is  done, it will not send any notification.</t>
   </si>
   <si>
+    <t>ExecutorService : is an interface .  Which allows us to execute the task on threads asynchronous .</t>
+  </si>
+  <si>
+    <t>it is available in java.util.concurrent pacakge.</t>
+  </si>
+  <si>
+    <t>it help us to maintain the pool of threads &amp; assign the work.</t>
+  </si>
+  <si>
+    <t>This executor will help us to maintain the pool of thread &amp; assign the task to them.  If the number of tasks is more than the threads available.</t>
+  </si>
+  <si>
+    <t>st1;</t>
+  </si>
+  <si>
+    <t>st2;</t>
+  </si>
+  <si>
+    <t>st3;</t>
+  </si>
+  <si>
+    <t>st4;</t>
+  </si>
+  <si>
+    <t>stn;</t>
+  </si>
+  <si>
+    <t>Task : Exectutor will come</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execute </t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>This method is declared in the executor interface.</t>
+  </si>
+  <si>
+    <t>This method is declared in executorservice.</t>
+  </si>
+  <si>
+    <t>this method accepts runnable and callable.</t>
+  </si>
+  <si>
+    <t>This method can accept only runnable.</t>
+  </si>
+  <si>
+    <t>this method has a return of void</t>
+  </si>
+  <si>
+    <t>it returns future object</t>
+  </si>
+  <si>
+    <t>parallel code execution will happen becaouse of worker threads</t>
+  </si>
+  <si>
+    <t>This method is used when we care about the result oand need it from task which is executed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runnable </t>
+  </si>
+  <si>
+    <t>Callable</t>
+  </si>
+  <si>
+    <t>available since java1.0</t>
+  </si>
+  <si>
+    <t>available since 1.5 java.util.concurrent</t>
+  </si>
+  <si>
+    <t>It can't return any value/data/object</t>
+  </si>
+  <si>
+    <t>it can return the result of parallel processing of the task</t>
+  </si>
+  <si>
+    <t>it can't throw any checked exception</t>
+  </si>
+  <si>
+    <t>it throws checked exception</t>
+  </si>
+  <si>
+    <t>we need to override run method</t>
+  </si>
+  <si>
+    <t>we need to override call method.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should be implemented by any class whose instances are intended to be executed by a thread.  </t>
+  </si>
+  <si>
+    <t>A task returns a result and may throw an exception , implementors define a single mehtod with no arg iee. Call method.  Callable interface is similar to Runnable , in that both are desinged  for classes whose instances are potentially executed by another thread.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exuecute </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -5468,88 +5573,1206 @@
 Synchronization
 Thread Priority
 Sleep method
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Concurrency
+Concurrency
 Creating worker threads using Runnable and Callable 
 Using an ExecutorService to concurrently execute tasks 
 Identifying potential threading problems
 </t>
     </r>
-  </si>
-  <si>
-    <t>ExecutorService : is an interface .  Which allows us to execute the task on threads asynchronous .</t>
-  </si>
-  <si>
-    <t>it is available in java.util.concurrent pacakge.</t>
-  </si>
-  <si>
-    <t>it help us to maintain the pool of threads &amp; assign the work.</t>
-  </si>
-  <si>
-    <t>This executor will help us to maintain the pool of thread &amp; assign the task to them.  If the number of tasks is more than the threads available.</t>
-  </si>
-  <si>
-    <t>st1;</t>
-  </si>
-  <si>
-    <t>st2;</t>
-  </si>
-  <si>
-    <t>st3;</t>
-  </si>
-  <si>
-    <t>st4;</t>
-  </si>
-  <si>
-    <t>stn;</t>
-  </si>
-  <si>
-    <t>Task : Exectutor will come</t>
-  </si>
-  <si>
-    <t xml:space="preserve">execute </t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>This method is declared in the executor interface.</t>
-  </si>
-  <si>
-    <t>This method is declared in executorservice.</t>
-  </si>
-  <si>
-    <t>this method accepts runnable and callable.</t>
-  </si>
-  <si>
-    <t>This method can accept only runnable.</t>
-  </si>
-  <si>
-    <t>this method has a return of void</t>
-  </si>
-  <si>
-    <t>it returns future object</t>
-  </si>
-  <si>
-    <t>parallel code execution will happen becaouse of worker threads</t>
-  </si>
-  <si>
-    <t>This method is used when we care about the result oand need it from task which is executed.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">HashMap : </t>
+  </si>
+  <si>
+    <t>ConncurrentHashMap</t>
+  </si>
+  <si>
+    <t>1. performance and thread safety are 2 params on which ConcurrentHashMap is focused.</t>
+  </si>
+  <si>
+    <t>freq read &amp; less writing operations &amp; need thread safety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HashTable : </t>
+  </si>
+  <si>
+    <t>No: Hashtable is thread safe but it will give poor performance in case of multiple threads reading from the hashtable .  Because all methods of hashtable including get() method is synchronized &amp; due to which invokation to any method has to wait until any other thread working on tashtable complete its operation(get put etc)</t>
+  </si>
+  <si>
+    <t>No: hashmap will solve performance problem How : it will provide the access to get method by allowing all thread to access it.  
+Hashmap is not thread safe : one thread tries to put data and requires rehashing @ the same time other thread tries to read the data &amp; it will go in infinte loop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">put Method working </t>
+  </si>
+  <si>
+    <t>get method working steps</t>
+  </si>
+  <si>
+    <t>1. putting key-value pair in CHM requires 1st identifying exact index in segment array Once segment array index is identified , now flow will be exact same as putting the data in hashmap/hashtable.</t>
+  </si>
+  <si>
+    <t>2. after identifying index in segment array , next task is to identify index of internal bucket / array present in internal HM</t>
+  </si>
+  <si>
+    <t>3. after identifying the bucket , iterate key value pair and check easch key with key to store whererver the match is found repace stored value with value to store.</t>
+  </si>
+  <si>
+    <t>if there is no match then it will store key value pair @ the last of the list.</t>
+  </si>
+  <si>
+    <t>getting the key value pair in CHM require fist identifying the exact index in segment array.</t>
+  </si>
+  <si>
+    <t>it will find the internal bucket in HM</t>
+  </si>
+  <si>
+    <t>after identifying the bucket will start iterating &amp; check each and every key with the given key &amp; wherever match found it will return else will return null</t>
+  </si>
+  <si>
+    <t>2^1 : 2 &gt;=8</t>
+  </si>
+  <si>
+    <t>2^2: 4 &gt; =8</t>
+  </si>
+  <si>
+    <t>2^3 : 8 &gt; =8</t>
+  </si>
+  <si>
+    <t>segment array size would be 8</t>
+  </si>
+  <si>
+    <t>2^4 : 16 &gt; =10</t>
+  </si>
+  <si>
+    <t>Design patterns are the common solutions to common problems.</t>
+  </si>
+  <si>
+    <t>Singleton DP:</t>
+  </si>
+  <si>
+    <t>expect only one object has to be created.</t>
+  </si>
+  <si>
+    <t>we must have only 1 private constructor in a class.</t>
+  </si>
+  <si>
+    <t>Builder :</t>
+  </si>
+  <si>
+    <t>Representation</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This step consists of how our product looks @ the end when it is ready.  </t>
+  </si>
+  <si>
+    <t>How the parts of products are actually made.</t>
+  </si>
+  <si>
+    <t>it may include multiple steps to construct the object.</t>
+  </si>
+  <si>
+    <t>How does Builder works?</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>builder</t>
+  </si>
+  <si>
+    <t>executor</t>
+  </si>
+  <si>
+    <t>final product/actual expected object</t>
+  </si>
+  <si>
+    <t>it will contains the general mehtods needed to build the product</t>
+  </si>
+  <si>
+    <t>it will help us to build the actual object by calling several methods as per req.</t>
+  </si>
+  <si>
+    <t>SOLID</t>
+  </si>
+  <si>
+    <t>it says that an implementation (class/function) should perform only one task or implementation and it should be changed for only one reason.</t>
+  </si>
+  <si>
+    <t>OrderManager :</t>
+  </si>
+  <si>
+    <t>validateOrder</t>
+  </si>
+  <si>
+    <t>SaveOrder</t>
+  </si>
+  <si>
+    <t>NotifyCustomer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrderValidator </t>
+  </si>
+  <si>
+    <t>validate();</t>
+  </si>
+  <si>
+    <t>Notifier :</t>
+  </si>
+  <si>
+    <t>notify();</t>
+  </si>
+  <si>
+    <t>Ordermanagement</t>
+  </si>
+  <si>
+    <t>saveOrder()</t>
+  </si>
+  <si>
+    <t>getOrder()</t>
+  </si>
+  <si>
+    <t>L : Liskov Substitution principle (LSP)</t>
+  </si>
+  <si>
+    <t>you should be able to use any derived class instead of a parent class &amp; should behave like a parent without modification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I : </t>
+  </si>
+  <si>
+    <t>D: dependancy inversion</t>
+  </si>
+  <si>
+    <t>1. High level modules should not depend on low level modules .  Both should depend on abstraction</t>
+  </si>
+  <si>
+    <t>2. abstractions should not depend on details . Details should depend on abstraction.</t>
+  </si>
+  <si>
+    <t>Maven Based project</t>
+  </si>
+  <si>
+    <t>Project management tool</t>
+  </si>
+  <si>
+    <t>which will help us to get the specific version of jar specified under the POM.xml</t>
+  </si>
+  <si>
+    <t>POM : Project Object Modeling.</t>
+  </si>
+  <si>
+    <t>dependancy</t>
+  </si>
+  <si>
+    <t>will hold name , version, scope</t>
+  </si>
+  <si>
+    <t>Six Dependency scopes:</t>
+  </si>
+  <si>
+    <r>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF242729"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>: default scope, classpath is available for both </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF242729"/>
+        <rFont val="Var(--ff-mono)"/>
+      </rPr>
+      <t>src/main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF242729"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF242729"/>
+        <rFont val="Var(--ff-mono)"/>
+      </rPr>
+      <t>src/test</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF242729"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>: classpath is available for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF242729"/>
+        <rFont val="Var(--ff-mono)"/>
+      </rPr>
+      <t>src/test</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>provided</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF242729"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>: like complie but provided by JDK or a container at runtime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>runtime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF242729"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>: not required for compilation only require at runtime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF242729"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>: provided locally provide classpath</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF242729"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>: can only import other POMs into the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF242729"/>
+        <rFont val="Var(--ff-mono)"/>
+      </rPr>
+      <t>&lt;dependencyManagement/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF242729"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>, only available in Maven 2.0.9 or later. It is not always practical to change parent, many projects already specify a parent project to manage their organization standards. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF242729"/>
+        <rFont val="Var(--ff-mono)"/>
+      </rPr>
+      <t>dependencyManagement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF242729"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t> allows us to add parent project without making parent, it's like multiple inheritance.</t>
+    </r>
+  </si>
+  <si>
+    <t>JDBC</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>it’s a pure API</t>
+  </si>
+  <si>
+    <t>it’s a framework which follows JPA</t>
+  </si>
+  <si>
+    <t>DB Connectivity</t>
+  </si>
+  <si>
+    <t>ORM(object relational mapping)</t>
+  </si>
+  <si>
+    <t>Spring is a framework</t>
+  </si>
+  <si>
+    <t>which will help us to manage the objects</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>MVC</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loose coupling </t>
+  </si>
+  <si>
+    <t>Interface Ref = InterfaceImpl object()</t>
+  </si>
+  <si>
+    <t>Employee Repo</t>
+  </si>
+  <si>
+    <t>EmplloyeeREpoMYSQL</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>DB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @bean</t>
+  </si>
+  <si>
+    <t>will give singleton object</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To mark it to service impl </t>
+  </si>
+  <si>
+    <t>will be applied on repo.</t>
+  </si>
+  <si>
+    <t>any where to get singleton object bydefault</t>
+  </si>
+  <si>
+    <t>to mark to Controller</t>
+  </si>
+  <si>
+    <t>to get singleton object for a specific class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in spring 2 containers </t>
+  </si>
+  <si>
+    <t>1. Bean Factory</t>
+  </si>
+  <si>
+    <t>2. application context</t>
+  </si>
+  <si>
+    <t>utility classes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PropertySource </t>
+  </si>
+  <si>
+    <t>to read the property file.</t>
+  </si>
+  <si>
+    <t>Spring object life cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object </t>
+  </si>
+  <si>
+    <t>constructor will be called</t>
+  </si>
+  <si>
+    <t>object will be destroyed</t>
+  </si>
+  <si>
+    <t>post constructor/init method</t>
+  </si>
+  <si>
+    <t>predestroy/destroymethod</t>
+  </si>
+  <si>
+    <t>after creating the object we can have some initiliazation work</t>
+  </si>
+  <si>
+    <t>closure work</t>
+  </si>
+  <si>
+    <t>ready for GC</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>Spring boot is a spring framework module  which provides RAD (Rapid Action Devlopment) to the spring framework.  It is depending on the starter template.</t>
+  </si>
+  <si>
+    <t>80mb space.</t>
+  </si>
+  <si>
+    <t>Starter Template :</t>
+  </si>
+  <si>
+    <t>Spring boot starters are templates that contain a collection of all the relevant dependancies that are needed for a particular functionality.</t>
+  </si>
+  <si>
+    <t>spring boot starter parent</t>
+  </si>
+  <si>
+    <t>spring boot starter web</t>
+  </si>
+  <si>
+    <t>starter</t>
+  </si>
+  <si>
+    <t>starter json</t>
+  </si>
+  <si>
+    <t>starter tomcat</t>
+  </si>
+  <si>
+    <t>spring webmvc</t>
+  </si>
+  <si>
+    <t>hibernate validator</t>
+  </si>
+  <si>
+    <t>springweb</t>
+  </si>
+  <si>
+    <t>Spring boot autoconfiguration</t>
+  </si>
+  <si>
+    <t>it is enabled with @Enable .  Spring boot auto confg. Scans ur classpath, find the lib spec &amp; them attempt to guess the best confgi. For u &amp; accordingly it will configure such beans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedded Server </t>
+  </si>
+  <si>
+    <t>Bootstrap the application</t>
+  </si>
+  <si>
+    <t>To run the application, we need to use @SpringBootApplication .</t>
+  </si>
+  <si>
+    <t>it is equivalent to : @configuration, @EnableAutoConfiguration, @ComponentScan</t>
+  </si>
+  <si>
+    <t>it enables the scanning of config classes.</t>
+  </si>
+  <si>
+    <t>spring boot will help us in resolving dependancy conflict.</t>
+  </si>
+  <si>
+    <t>it will manage compatibility of the versions for all dependencies.  It minimizes the runtime classloader issues.</t>
+  </si>
+  <si>
+    <t>random port generation for integration testing.</t>
+  </si>
+  <si>
+    <t>Web Services :</t>
+  </si>
+  <si>
+    <t>these services will help us to exchange the data over the cross platform.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Types of Web Services : </t>
+  </si>
+  <si>
+    <t>1. SOAP</t>
+  </si>
+  <si>
+    <t>2. REST</t>
+  </si>
+  <si>
+    <t>Simple Object Access Protocol</t>
+  </si>
+  <si>
+    <t>Representational state transfer</t>
+  </si>
+  <si>
+    <t>Protocol : we have to follow the protocols</t>
+  </si>
+  <si>
+    <t>Architectural style in which a web service can be treated as a restful service if :
+1. client server 
+stateless
+cacheable 
+layered system</t>
+  </si>
+  <si>
+    <t>it uses service interface to expose its functionality to client apps .  WSDL</t>
+  </si>
+  <si>
+    <t>only end points</t>
+  </si>
+  <si>
+    <t>SpringMVC</t>
+  </si>
+  <si>
+    <t>MVC :</t>
+  </si>
+  <si>
+    <t>Model View Controller</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>requestline</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>– Access to Restful API is protected by HTTPSecurity and authorized with Method Security Expressions.</t>
+  </si>
+  <si>
+    <r>
+      <t>– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>SecurityContextHolder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> provides access to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>SecurityContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>SecurityContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> holds the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>Authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> and possibly request-specific security information.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>Authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> represents the principal which includes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>GrantedAuthority</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> that reflects the application-wide permissions granted to a principal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserDetails</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> contains necessary information to build an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>Authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> object from DAOs or other source of security data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserDetailsService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> helps to create a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserDetails</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> from a String-based username and is usually used by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>AuthenticationProvider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>JwtAuthTokenFilter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>OncePerRequestFilter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>) pre-processes HTTP request, from Token, create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>Authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> and populate it to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>SecurityContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>JwtProvider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> validates, parses token String or generates token String from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserDetails</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>UsernamePasswordAuthenticationToken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> gets username/password from login Request and combines into an instance of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>Authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> interface.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>AuthenticationManager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> uses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>DaoAuthenticationProvider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (with help of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>UserDetailsService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> &amp; PasswordEncoder) to validate instance of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>UsernamePasswordAuthenticationToken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>, then returns a fully populated </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>Authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> instance on successful authentication.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>SecurityContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> is established by calling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>SecurityContextHolder.getContext().setAuthentication(…​)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> with returned </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> object above.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>– </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>AuthenticationEntryPoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> handles </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Inconsolata"/>
+        <family val="3"/>
+      </rPr>
+      <t>AuthenticationException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -5710,6 +6933,46 @@
       <color rgb="FF222222"/>
       <name val="Source Sans Pro"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF242729"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF242729"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF242729"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF242729"/>
+      <name val="Var(--ff-mono)"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF282828"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF282828"/>
+      <name val="Inconsolata"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="16">
@@ -5907,7 +7170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6055,6 +7318,19 @@
     <xf numFmtId="0" fontId="23" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6069,6 +7345,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6718,8 +8000,8 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -6733,10 +8015,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="55"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:4" ht="15.6">
       <c r="B2" s="7" t="s">
@@ -6849,7 +8131,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>691</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="129.6">
@@ -7148,12 +8430,316 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99492C3-0F52-4EA2-8AB3-484697B4BEB6}">
+  <dimension ref="D2:E54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="4" max="4" width="29.77734375" customWidth="1"/>
+    <col min="5" max="5" width="45.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:5">
+      <c r="D2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5">
+      <c r="D4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5">
+      <c r="D5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" t="s">
+        <v>751</v>
+      </c>
+      <c r="E16" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" t="s">
+        <v>752</v>
+      </c>
+      <c r="E20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="E21" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" t="s">
+        <v>757</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" ht="26.4">
+      <c r="D26" t="s">
+        <v>758</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" ht="26.4">
+      <c r="D27" t="s">
+        <v>759</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" ht="39.6">
+      <c r="D32" t="s">
+        <v>763</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" t="s">
+        <v>765</v>
+      </c>
+      <c r="E35" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="E36" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="E37" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="E41" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="E42" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="E43" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="E44" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="E45" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="E46" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" ht="39.6">
+      <c r="D51" t="s">
+        <v>776</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" t="s">
+        <v>779</v>
+      </c>
+      <c r="E53" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="E54" t="s">
+        <v>781</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2BABBE-B582-471C-81F7-ACC9A4384A4F}">
+  <dimension ref="E5:F29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="5" max="5" width="66.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:5">
+      <c r="E5" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="55" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="56"/>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="57" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="57" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="57" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="57" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="57" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="57.6">
+      <c r="E20" s="57" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" t="s">
+        <v>795</v>
+      </c>
+      <c r="F27" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28" t="s">
+        <v>797</v>
+      </c>
+      <c r="F28" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29" t="s">
+        <v>799</v>
+      </c>
+      <c r="F29" t="s">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541E456E-7749-4111-B165-16A051345509}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C425E4-34B7-4A9A-8A96-15C3C2DB8664}">
-  <dimension ref="D2:F144"/>
+  <dimension ref="D2:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C127" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView topLeftCell="C127" workbookViewId="0">
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7713,22 +9299,22 @@
     </row>
     <row r="117" spans="5:6">
       <c r="E117" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="118" spans="5:6">
       <c r="E118" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="119" spans="5:6">
       <c r="E119" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="121" spans="5:6">
       <c r="E121" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="125" spans="5:6">
@@ -7738,25 +9324,25 @@
     </row>
     <row r="127" spans="5:6">
       <c r="E127" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="128" spans="5:6">
       <c r="E128" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F128" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="129" spans="5:6">
       <c r="E129" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="130" spans="5:6">
       <c r="E130" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="131" spans="5:6">
@@ -7781,47 +9367,103 @@
     </row>
     <row r="136" spans="5:6">
       <c r="E136" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="140" spans="5:6">
       <c r="E140" t="s">
+        <v>701</v>
+      </c>
+      <c r="F140" t="s">
         <v>702</v>
-      </c>
-      <c r="F140" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="141" spans="5:6">
       <c r="E141" t="s">
+        <v>703</v>
+      </c>
+      <c r="F141" t="s">
         <v>704</v>
-      </c>
-      <c r="F141" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="142" spans="5:6">
       <c r="E142" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F142" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="143" spans="5:6">
       <c r="E143" t="s">
+        <v>707</v>
+      </c>
+      <c r="F143" t="s">
         <v>708</v>
-      </c>
-      <c r="F143" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="144" spans="5:6">
       <c r="E144" t="s">
+        <v>709</v>
+      </c>
+      <c r="F144" t="s">
         <v>710</v>
       </c>
-      <c r="F144" t="s">
+    </row>
+    <row r="148" spans="5:6">
+      <c r="E148" t="s">
         <v>711</v>
+      </c>
+      <c r="F148" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="149" spans="5:6">
+      <c r="E149" t="s">
+        <v>713</v>
+      </c>
+      <c r="F149" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="150" spans="5:6">
+      <c r="E150" t="s">
+        <v>715</v>
+      </c>
+      <c r="F150" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="151" spans="5:6">
+      <c r="E151" t="s">
+        <v>717</v>
+      </c>
+      <c r="F151" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="152" spans="5:6">
+      <c r="E152" t="s">
+        <v>719</v>
+      </c>
+      <c r="F152" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="153" spans="5:6">
+      <c r="E153" t="s">
+        <v>721</v>
+      </c>
+      <c r="F153" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="154" spans="5:6">
+      <c r="E154" t="s">
+        <v>723</v>
+      </c>
+      <c r="F154" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -7831,7 +9473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3091C39D-05C3-4CA3-8124-30219321BD01}">
   <dimension ref="E3"/>
   <sheetViews>
@@ -7854,7 +9496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE1226E-5D2F-46E0-9E99-EB60CC61BABD}">
   <dimension ref="B5:J399"/>
   <sheetViews>
@@ -7987,7 +9629,7 @@
       <c r="E23" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="62" t="s">
         <v>87</v>
       </c>
     </row>
@@ -7995,7 +9637,7 @@
       <c r="E24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="57"/>
+      <c r="F24" s="62"/>
     </row>
     <row r="27" spans="5:6">
       <c r="E27" t="s">
@@ -8043,7 +9685,7 @@
       <c r="E36" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="58" t="s">
+      <c r="F36" s="63" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8051,7 +9693,7 @@
       <c r="E37" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="58"/>
+      <c r="F37" s="63"/>
     </row>
     <row r="40" spans="5:6">
       <c r="E40" t="s">
@@ -9420,32 +11062,32 @@
       </c>
     </row>
     <row r="313" spans="3:6" ht="261" customHeight="1">
-      <c r="C313" s="59" t="s">
+      <c r="C313" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="D313" s="56" t="s">
+      <c r="D313" s="61" t="s">
         <v>432</v>
       </c>
       <c r="E313" s="40" t="s">
         <v>433</v>
       </c>
-      <c r="F313" s="59" t="s">
+      <c r="F313" s="64" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="314" spans="3:6" ht="13.8">
-      <c r="C314" s="59"/>
-      <c r="D314" s="56"/>
+      <c r="C314" s="64"/>
+      <c r="D314" s="61"/>
       <c r="E314" s="41"/>
-      <c r="F314" s="59"/>
+      <c r="F314" s="64"/>
     </row>
     <row r="315" spans="3:6">
-      <c r="C315" s="59"/>
-      <c r="D315" s="56"/>
+      <c r="C315" s="64"/>
+      <c r="D315" s="61"/>
       <c r="E315" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="F315" s="59"/>
+      <c r="F315" s="64"/>
     </row>
     <row r="316" spans="3:6" ht="55.2">
       <c r="C316" s="40" t="s">
@@ -9762,10 +11404,10 @@
       </c>
     </row>
     <row r="341" spans="3:6" ht="59.4" customHeight="1">
-      <c r="C341" s="56" t="s">
+      <c r="C341" s="61" t="s">
         <v>509</v>
       </c>
-      <c r="D341" s="56"/>
+      <c r="D341" s="61"/>
       <c r="E341" s="40" t="s">
         <v>510</v>
       </c>
@@ -9774,10 +11416,10 @@
       </c>
     </row>
     <row r="342" spans="3:6" ht="57" customHeight="1">
-      <c r="C342" s="56" t="s">
+      <c r="C342" s="61" t="s">
         <v>512</v>
       </c>
-      <c r="D342" s="56"/>
+      <c r="D342" s="61"/>
       <c r="E342" s="40" t="s">
         <v>513</v>
       </c>
@@ -10069,4 +11711,631 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968EE938-A8FE-41EE-9E65-96A2B24B64C3}">
+  <dimension ref="F5:H139"/>
+  <sheetViews>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="H137" sqref="H137"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.21875" customWidth="1"/>
+    <col min="8" max="8" width="51.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="7:7">
+      <c r="G5" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="7:7">
+      <c r="G6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="G20" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21" t="s">
+        <v>809</v>
+      </c>
+      <c r="G21" t="s">
+        <v>810</v>
+      </c>
+      <c r="H21" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
+      <c r="F25" t="s">
+        <v>812</v>
+      </c>
+      <c r="G25" t="s">
+        <v>818</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8">
+      <c r="F26" t="s">
+        <v>813</v>
+      </c>
+      <c r="G26" t="s">
+        <v>819</v>
+      </c>
+      <c r="H26" s="63"/>
+    </row>
+    <row r="27" spans="6:8">
+      <c r="F27" t="s">
+        <v>814</v>
+      </c>
+      <c r="G27" t="s">
+        <v>820</v>
+      </c>
+      <c r="H27" s="63"/>
+    </row>
+    <row r="28" spans="6:8">
+      <c r="F28" t="s">
+        <v>816</v>
+      </c>
+      <c r="G28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H28" s="63"/>
+    </row>
+    <row r="29" spans="6:8">
+      <c r="F29" t="s">
+        <v>817</v>
+      </c>
+      <c r="G29" t="s">
+        <v>822</v>
+      </c>
+      <c r="H29" s="63"/>
+    </row>
+    <row r="30" spans="6:8">
+      <c r="G30" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7">
+      <c r="F33" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7">
+      <c r="F34" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7">
+      <c r="F35" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7">
+      <c r="F41" t="s">
+        <v>827</v>
+      </c>
+      <c r="G41" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7">
+      <c r="F48" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7">
+      <c r="F50" s="34" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7">
+      <c r="F51" s="34" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7">
+      <c r="F52" s="59" t="s">
+        <v>833</v>
+      </c>
+      <c r="G52" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7">
+      <c r="F53" s="59" t="s">
+        <v>834</v>
+      </c>
+      <c r="G53" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7">
+      <c r="F54" s="34" t="s">
+        <v>832</v>
+      </c>
+      <c r="G54" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8">
+      <c r="G77" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="79" spans="7:8" ht="39.6">
+      <c r="G79" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="H79" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7">
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7" ht="39.6">
+      <c r="G83" s="9" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7">
+      <c r="G86" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7">
+      <c r="G87" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7">
+      <c r="G88" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7">
+      <c r="G89" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7">
+      <c r="G90" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7">
+      <c r="G91" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7">
+      <c r="G92" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7">
+      <c r="G93" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7">
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" ht="39.6">
+      <c r="G96" s="9" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7">
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7">
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7">
+      <c r="G99" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7" ht="26.4">
+      <c r="G100" s="9" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7">
+      <c r="G101" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7">
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7" ht="26.4">
+      <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103" s="58" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7">
+      <c r="F104">
+        <v>7</v>
+      </c>
+      <c r="G104" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="112" spans="6:7">
+      <c r="G112" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8">
+      <c r="G113" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8">
+      <c r="G115" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8">
+      <c r="G116" t="s">
+        <v>864</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8">
+      <c r="G117" t="s">
+        <v>866</v>
+      </c>
+      <c r="H117" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" ht="79.2">
+      <c r="G118" t="s">
+        <v>868</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="119" spans="7:8">
+      <c r="G119" t="s">
+        <v>870</v>
+      </c>
+      <c r="H119" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="125" spans="7:8">
+      <c r="G125" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="126" spans="7:8">
+      <c r="G126" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="127" spans="7:8">
+      <c r="G127" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="135" spans="7:8">
+      <c r="G135" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="136" spans="7:8">
+      <c r="G136" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="137" spans="7:8">
+      <c r="G137" t="s">
+        <v>878</v>
+      </c>
+      <c r="H137" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="138" spans="7:8">
+      <c r="G138" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="139" spans="7:8">
+      <c r="G139" t="s">
+        <v>876</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H25:H29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06603397-566D-4698-9F55-C58805647549}">
+  <dimension ref="I4:I19"/>
+  <sheetViews>
+    <sheetView topLeftCell="H3" zoomScale="95" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="9" max="9" width="180.88671875" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="9:9" ht="18.600000000000001">
+      <c r="I4" s="65"/>
+    </row>
+    <row r="5" spans="9:9" ht="20.399999999999999">
+      <c r="I5" s="66" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="6" spans="9:9" ht="20.399999999999999">
+      <c r="I6" s="66" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="7" spans="9:9" ht="40.200000000000003">
+      <c r="I7" s="66" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="8" spans="9:9" ht="40.200000000000003">
+      <c r="I8" s="66" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="9" spans="9:9" ht="40.799999999999997">
+      <c r="I9" s="66" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="10" spans="9:9" ht="40.799999999999997">
+      <c r="I10" s="66" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="11" spans="9:9" ht="20.399999999999999">
+      <c r="I11" s="66" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="12" spans="9:9" ht="40.799999999999997">
+      <c r="I12" s="66" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="13" spans="9:9" ht="60.6">
+      <c r="I13" s="66" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="14" spans="9:9" ht="40.799999999999997">
+      <c r="I14" s="66" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="15" spans="9:9" ht="20.399999999999999">
+      <c r="I15" s="66" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="16" spans="9:9" ht="19.8">
+      <c r="I16" s="66" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" ht="18.600000000000001">
+      <c r="I17" s="65"/>
+    </row>
+    <row r="18" spans="9:9" ht="18.600000000000001">
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="9:9" ht="18.600000000000001">
+      <c r="I19" s="65"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8929C4-42CB-4076-BA99-49C3CD7EB550}">
+  <dimension ref="D4:E35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="5" max="5" width="41.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:5">
+      <c r="D4" t="s">
+        <v>725</v>
+      </c>
+      <c r="E4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="26.4">
+      <c r="E5" s="9" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="26.4">
+      <c r="E6" s="9" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="92.4">
+      <c r="D8" t="s">
+        <v>729</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" ht="92.4">
+      <c r="D10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" ht="66">
+      <c r="D14" t="s">
+        <v>732</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" ht="39.6">
+      <c r="E15" s="9" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" ht="52.8">
+      <c r="E16" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="26.4">
+      <c r="E17" s="9" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" t="s">
+        <v>733</v>
+      </c>
+      <c r="E21" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="E22" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" ht="52.8">
+      <c r="E23" s="9" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="E30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="E31" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="E32" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" t="s">
+        <v>745</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>